--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2011363.644551083</v>
+        <v>2007226.487300931</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>66.39852019087662</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>37.2384520659815</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.30112502764958</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>197.3492773004314</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>42.47185291079804</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>255.1854643015978</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>83.43295966312228</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>110.3838034696614</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>291.0756362472036</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>226.9686834372099</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>32.79224029662786</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>33.82351723687695</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>104.4262124629293</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>34.45703212904674</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>180.330238561827</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>56.04917322725558</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.72279572932659</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.05052491174621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>266.8982277297035</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>31.40247677522967</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>73.97774435452045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>185.0663491738889</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>81.88270281562022</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.9742079424025</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>23.10998325717172</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1380.342820051862</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1011.38030311145</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>1285.984832846309</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,22 +4330,22 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764998</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583056</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312942</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.342820051862</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.342820051862</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400156</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.6966947956497</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>750.7605118677428</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.103415730628</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>1437.103415730628</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>1147.686245693667</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>919.6966947956497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.6966947956497</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.784838233996</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1567.784838233996</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1567.784838233996</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800312</v>
@@ -4567,22 +4567,22 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816094</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872926</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764998</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2519.438466874097</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2310.692825479922</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2310.692825479922</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2310.692825479922</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1957.924170209807</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X5" t="n">
-        <v>1957.924170209807</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y5" t="n">
-        <v>1567.784838233996</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4640,22 +4640,22 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410.3138329979533</v>
+        <v>944.587906063767</v>
       </c>
       <c r="C7" t="n">
-        <v>241.3776500700464</v>
+        <v>775.6517231358602</v>
       </c>
       <c r="D7" t="n">
-        <v>241.3776500700464</v>
+        <v>625.5350837235244</v>
       </c>
       <c r="E7" t="n">
-        <v>241.3776500700464</v>
+        <v>477.6219901411313</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>330.7320426432209</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>162.7455779514995</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>638.3033838959707</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>410.3138329979533</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.3138329979533</v>
+        <v>1126.236370894007</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.326884986528</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.326884986528</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>299.1179299537358</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>292.1724292045323</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>280.5080829692253</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4837,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.92672505065</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.92672505065</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>633.7673475025059</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>633.7673475025059</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544053</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1082.549477544053</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>854.559926646036</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>633.7673475025059</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585279</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
         <v>779.6143379232838</v>
@@ -5703,22 +5703,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5477693179085</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4311299055728</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5180363231797</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6280888252693</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>150.4319895401492</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.030966681951</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.176132336855</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2023.574667359796</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1734.499440703994</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1707.866911086565</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2415.243410069927</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2232.388575724832</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2372.238089282765</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2152.636624305706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1863.561397649904</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V34" t="n">
-        <v>1608.876909444017</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W34" t="n">
-        <v>1319.459739407057</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1031.260321675049</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>862.3241387471426</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E46" t="n">
-        <v>264.0500279773688</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F46" t="n">
-        <v>117.1600804794585</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>199.7516311504072</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P3" t="n">
-        <v>54.95314511566534</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>45.76488231024541</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>112.979237864359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>45.65245098079509</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28624665954061</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.97276993489202</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>107.0485416471241</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>66.73277020259214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.85777223953482</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>142.4141550350971</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>876543.4989389305</v>
+        <v>876543.4989389306</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26435,7 +26435,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26453,7 +26453,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732011</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767278.3173726297</v>
+        <v>-767278.3173726294</v>
       </c>
       <c r="C6" t="n">
-        <v>347473.4662032903</v>
+        <v>347473.4662032899</v>
       </c>
       <c r="D6" t="n">
-        <v>347473.4662032902</v>
+        <v>347473.4662032899</v>
       </c>
       <c r="E6" t="n">
-        <v>-51722.66409218076</v>
+        <v>-52070.04334653728</v>
       </c>
       <c r="F6" t="n">
-        <v>455762.7775323655</v>
+        <v>455415.3982780083</v>
       </c>
       <c r="G6" t="n">
-        <v>455762.7775323653</v>
+        <v>455415.3982780084</v>
       </c>
       <c r="H6" t="n">
-        <v>455762.7775323652</v>
+        <v>455415.3982780084</v>
       </c>
       <c r="I6" t="n">
-        <v>455762.7775323652</v>
+        <v>455415.3982780085</v>
       </c>
       <c r="J6" t="n">
-        <v>288157.5997223825</v>
+        <v>287810.2204680259</v>
       </c>
       <c r="K6" t="n">
-        <v>455762.7775323653</v>
+        <v>455415.3982780085</v>
       </c>
       <c r="L6" t="n">
-        <v>455762.7775323653</v>
+        <v>455415.3982780085</v>
       </c>
       <c r="M6" t="n">
-        <v>323155.4838034388</v>
+        <v>322808.1045490816</v>
       </c>
       <c r="N6" t="n">
-        <v>455762.7775323656</v>
+        <v>455415.3982780084</v>
       </c>
       <c r="O6" t="n">
-        <v>455762.7775323656</v>
+        <v>455415.3982780084</v>
       </c>
       <c r="P6" t="n">
-        <v>455762.7775323655</v>
+        <v>455415.3982780085</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26795,7 +26795,7 @@
         <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>288.2845214298063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>344.6919180062803</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>151.3613353340879</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>88.87787682076925</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80.98036248799633</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>94.05550441581519</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>61.98808835980897</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>36.86770568546744</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>63.60740537347937</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>74.04986912519547</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>115.8232327215845</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>640.7275049411307</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>590.9487307432811</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P3" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>436.9619819031193</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>498.1312604966863</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2007226.487300931</v>
+        <v>2008987.017603717</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>9.991123614402589</v>
       </c>
       <c r="E2" t="n">
-        <v>37.2384520659815</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>43.30112502764958</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>43.3011250276498</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>93.60296205688087</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>255.1854643015978</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>110.3838034696614</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.94563726208598</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>208.2474868886324</v>
       </c>
       <c r="H8" t="n">
-        <v>226.9686834372099</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G13" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>33.82351723687695</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>72.77126028643559</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>180.330238561827</v>
+        <v>266.676894193418</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.72279572932659</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>34.45703212904776</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>78.89395497654183</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>19.88691958258368</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>185.0663491738889</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>183.1813225058491</v>
       </c>
     </row>
     <row r="38">
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534137</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4312,7 +4312,7 @@
         <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.984832846309</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
         <v>1248.370234799863</v>
@@ -4321,40 +4321,40 @@
         <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4482,22 +4482,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,25 +4509,25 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1490.124203461141</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1490.124203461141</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1490.124203461141</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.124203461141</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>1490.124203461141</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X4" t="n">
         <v>1490.124203461141</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>1008.943039642068</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>623.1547870438242</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>212.1688822542166</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1973.513345802446</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1973.513345802446</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.587906063767</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>775.6517231358602</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D7" t="n">
-        <v>625.5350837235244</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E7" t="n">
-        <v>477.6219901411313</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F7" t="n">
-        <v>330.7320426432209</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G7" t="n">
-        <v>162.7455779514995</v>
+        <v>224.1731970904424</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>75.43429895394854</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.028950037537</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.236370894007</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>684.90618255198</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E8" t="n">
-        <v>299.1179299537358</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="F8" t="n">
-        <v>292.1724292045323</v>
+        <v>261.5977834252075</v>
       </c>
       <c r="G8" t="n">
-        <v>280.5080829692253</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4846,10 +4846,10 @@
         <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>114.5432626034352</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>299.2648838844851</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4947,22 +4947,22 @@
         <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.9192356072716</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C16" t="n">
-        <v>815.9830526793647</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D16" t="n">
-        <v>665.866413267029</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2045.209862480144</v>
+        <v>1708.090480315137</v>
       </c>
       <c r="V19" t="n">
-        <v>1790.525374274257</v>
+        <v>1453.405992109251</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1163.98882207229</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>935.9992711742725</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>715.2066920307424</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.030966681951</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.176132336855</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2023.574667359796</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.499440703994</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.814952498107</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,28 +6147,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101826</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>422.7903292978468</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>422.7903292978468</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>422.7903292978468</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>255.5942300127268</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958744</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261141</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1790.525374274257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,28 +7171,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7204,10 +7204,10 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123002</v>
@@ -7250,7 +7250,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7323,7 +7323,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797186</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556308</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>335.9629114732377</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>189.0729639753273</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>199.7516311504072</v>
+        <v>231.2582814363237</v>
       </c>
       <c r="O3" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883069305</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-4.509430956159834e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-1.120294774753141e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G13" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>144.6341900408527</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>105.8542358274172</v>
+        <v>19.50758019582616</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.65245098079509</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>182.9484181982405</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>61.40075786968202</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>147.3599015160441</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>57.2291039219422</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>876543.4989389306</v>
+        <v>876543.4989389305</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>876543.4989389305</v>
+        <v>876543.4989389306</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>876543.4989389305</v>
+        <v>876543.4989389306</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854823.2572546544</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546544</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26432,13 +26432,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731938</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731938</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26453,7 +26453,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732011</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767278.3173726294</v>
+        <v>-767278.3173726299</v>
       </c>
       <c r="C6" t="n">
-        <v>347473.4662032899</v>
+        <v>347473.4662032903</v>
       </c>
       <c r="D6" t="n">
-        <v>347473.4662032899</v>
+        <v>347473.46620329</v>
       </c>
       <c r="E6" t="n">
-        <v>-52070.04334653728</v>
+        <v>-51757.40201761657</v>
       </c>
       <c r="F6" t="n">
-        <v>455415.3982780083</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="G6" t="n">
-        <v>455415.3982780084</v>
+        <v>455728.0396069294</v>
       </c>
       <c r="H6" t="n">
-        <v>455415.3982780084</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="I6" t="n">
-        <v>455415.3982780085</v>
+        <v>455728.0396069296</v>
       </c>
       <c r="J6" t="n">
-        <v>287810.2204680259</v>
+        <v>288122.861796947</v>
       </c>
       <c r="K6" t="n">
-        <v>455415.3982780085</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="L6" t="n">
-        <v>455415.3982780085</v>
+        <v>455728.03960693</v>
       </c>
       <c r="M6" t="n">
-        <v>322808.1045490816</v>
+        <v>323120.745878003</v>
       </c>
       <c r="N6" t="n">
-        <v>455415.3982780084</v>
+        <v>455728.0396069297</v>
       </c>
       <c r="O6" t="n">
-        <v>455415.3982780084</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="P6" t="n">
-        <v>455415.3982780085</v>
+        <v>455728.03960693</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.2505288371554e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>344.6919180062804</v>
       </c>
       <c r="E2" t="n">
-        <v>344.6919180062803</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>151.3613353340879</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>182.4085303613874</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>317.9447407160731</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.05550441581519</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.86770568546744</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>80.8509579418146</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>203.3002158843216</v>
       </c>
       <c r="H8" t="n">
-        <v>74.04986912519547</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-4.859222202665234e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30276,13 +30276,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>9.09494701772928e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>593.5422977113961</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982885</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982885</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982885</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,19 +33505,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,19 +33742,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>590.9487307432811</v>
+        <v>622.4553810291977</v>
       </c>
       <c r="O3" t="n">
-        <v>640.584832100039</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>63.93583437922432</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,7 +35269,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35415,13 +35415,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>462.2005856280628</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762701</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762701</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762701</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
